--- a/regions/2/mretsveloba/mretsveloba.xlsx
+++ b/regions/2/mretsveloba/mretsveloba.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$17</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -180,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,6 +208,9 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,16 +516,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.42578125" customWidth="1"/>
+    <col min="2" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -540,7 +544,7 @@
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -587,8 +591,14 @@
       <c r="P2" s="4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q2" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -631,14 +641,20 @@
       <c r="N3" s="10">
         <v>470.3</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="15">
         <v>596.29999999999995</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="15">
         <v>809.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="15">
+        <v>876.7</v>
+      </c>
+      <c r="R3" s="15">
+        <v>854.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -681,14 +697,20 @@
       <c r="N4" s="11">
         <v>432.9</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="15">
         <v>633.79999999999995</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="15">
         <v>800.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="15">
+        <v>825.6</v>
+      </c>
+      <c r="R4" s="15">
+        <v>818.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -731,14 +753,20 @@
       <c r="N5" s="12">
         <v>4848</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="12">
         <v>4500</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="12">
         <v>4245</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="12">
+        <v>4691</v>
+      </c>
+      <c r="R5" s="12">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -781,14 +809,20 @@
       <c r="N6" s="12">
         <v>4575</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="12">
         <v>4095</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="12">
         <v>3863</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="12">
+        <v>4354</v>
+      </c>
+      <c r="R6" s="12">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -831,14 +865,20 @@
       <c r="N7" s="13">
         <v>736</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="15">
         <v>901.7</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="15">
         <v>942.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="15">
+        <v>961</v>
+      </c>
+      <c r="R7" s="15">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -881,14 +921,20 @@
       <c r="N8" s="10">
         <v>332.2</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="15">
         <v>498.2</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="15">
         <v>606.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="15">
+        <v>651.20000000000005</v>
+      </c>
+      <c r="R8" s="15">
+        <v>594.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -931,14 +977,20 @@
       <c r="N9" s="10">
         <v>40.4</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="15">
         <v>44.9</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <v>44.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="15">
+        <v>50.9</v>
+      </c>
+      <c r="R9" s="15">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -981,14 +1033,20 @@
       <c r="N10" s="10">
         <v>100.7</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="15">
         <v>135.69999999999999</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="15">
         <v>193.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="15">
+        <v>174.4</v>
+      </c>
+      <c r="R10" s="15">
+        <v>223.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1031,14 +1089,20 @@
       <c r="N11" s="10">
         <v>128.6</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="15">
         <v>80.3</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="15">
         <v>85.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="15">
+        <v>59.3</v>
+      </c>
+      <c r="R11" s="15">
+        <v>156.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1081,14 +1145,20 @@
       <c r="N12" s="10">
         <v>346.5</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="15">
         <v>516.4</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="15">
         <v>657.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="15">
+        <v>699.2</v>
+      </c>
+      <c r="R12" s="15">
+        <v>659.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1104,7 +1174,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1120,12 +1190,12 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/regions/2/mretsveloba/mretsveloba.xlsx
+++ b/regions/2/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +526,7 @@
     <col min="2" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -544,7 +544,7 @@
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -597,8 +597,11 @@
       <c r="R2" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S2" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -653,8 +656,11 @@
       <c r="R3" s="15">
         <v>854.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S3" s="15">
+        <v>896.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -709,8 +715,11 @@
       <c r="R4" s="15">
         <v>818.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="15">
+        <v>891.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -765,8 +774,11 @@
       <c r="R5" s="12">
         <v>4766</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S5" s="12">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -821,8 +833,11 @@
       <c r="R6" s="12">
         <v>4390</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S6" s="12">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -877,8 +892,11 @@
       <c r="R7" s="15">
         <v>1002.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="15">
+        <v>1016.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -933,8 +951,11 @@
       <c r="R8" s="15">
         <v>594.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S8" s="15">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -989,8 +1010,11 @@
       <c r="R9" s="15">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S9" s="15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -1045,8 +1069,11 @@
       <c r="R10" s="15">
         <v>223.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S10" s="15">
+        <v>385.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1101,8 +1128,11 @@
       <c r="R11" s="15">
         <v>156.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S11" s="15">
+        <v>132.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="R12" s="15">
         <v>659.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="15">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1174,7 +1207,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1190,12 +1223,12 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
